--- a/BOLERA-FACTURA/BOLETA HOY.xlsx
+++ b/BOLERA-FACTURA/BOLETA HOY.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\BOLERA-FACTURA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D236531C-D353-498A-8334-2F35CCA3DED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD286D3-EBCD-4D7A-A1B1-BB4E8AB65FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -401,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/BOLERA-FACTURA/BOLETA HOY.xlsx
+++ b/BOLERA-FACTURA/BOLETA HOY.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD286D3-EBCD-4D7A-A1B1-BB4E8AB65FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C843F-D36C-4D29-806F-8513EFC9E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,63 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
-  <si>
-    <t>VERZUS X 100GR</t>
-  </si>
-  <si>
-    <t>BUKRA 580 WG X 100GR</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+  <si>
+    <t>unidad</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>precio</t>
+  </si>
+  <si>
+    <t>IGV</t>
+  </si>
+  <si>
+    <t>SENSEI 350 SC X 1LT</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>CRUCIAL FS X 250ML</t>
+  </si>
+  <si>
+    <t>SELLADOR 400 EC X 1LT</t>
+  </si>
+  <si>
+    <t>FARMOZINE X 1LT</t>
   </si>
   <si>
     <t>ROUNDUP SL X 1LT</t>
-  </si>
-  <si>
-    <t>MERIDIAN X 100GR</t>
-  </si>
-  <si>
-    <t>KUROMIL 90P BOL 100GRS</t>
-  </si>
-  <si>
-    <t>DELTAPLUS 2.5 EC X 1LT</t>
-  </si>
-  <si>
-    <t>SENSEI 350 SC X 1LT</t>
-  </si>
-  <si>
-    <t>HOOK X 200GR</t>
-  </si>
-  <si>
-    <t>FARMOZINE X 1LT</t>
-  </si>
-  <si>
-    <t>EMBATE 480 SL X 1LT</t>
-  </si>
-  <si>
-    <t>TIFON 4E X 1LT</t>
-  </si>
-  <si>
-    <t>KIETO 150 WG X 100GR</t>
-  </si>
-  <si>
-    <t>SKIRLA X 100GR</t>
-  </si>
-  <si>
-    <t>LOVERA X 1LT</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>unidad</t>
-  </si>
-  <si>
-    <t>nombre</t>
-  </si>
-  <si>
-    <t>precio</t>
-  </si>
-  <si>
-    <t>IGV</t>
   </si>
 </sst>
 </file>
@@ -399,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,212 +386,86 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>38</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
         <v>5</v>
-      </c>
-      <c r="C7">
-        <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>75</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15">
-        <v>110</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BOLERA-FACTURA/BOLETA HOY.xlsx
+++ b/BOLERA-FACTURA/BOLETA HOY.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222C843F-D36C-4D29-806F-8513EFC9E2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9E5CB-6AA1-420A-89CB-438512173CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$19</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>unidad</t>
   </si>
@@ -39,35 +42,89 @@
     <t>IGV</t>
   </si>
   <si>
-    <t>SENSEI 350 SC X 1LT</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>CRUCIAL FS X 250ML</t>
-  </si>
-  <si>
-    <t>SELLADOR 400 EC X 1LT</t>
-  </si>
-  <si>
-    <t>FARMOZINE X 1LT</t>
-  </si>
-  <si>
-    <t>ROUNDUP SL X 1LT</t>
+    <t>DELTAPLUS 2.5 EC X 1LT</t>
+  </si>
+  <si>
+    <t>ROOT HOR FCO X1LT</t>
+  </si>
+  <si>
+    <t>BUKRA 580 WG X 100GR</t>
+  </si>
+  <si>
+    <t>KIETO 150 WG X 100GR</t>
+  </si>
+  <si>
+    <t>FIPROKILL 200 SC X 1LT</t>
+  </si>
+  <si>
+    <t>BOMBAI X 125GR</t>
+  </si>
+  <si>
+    <t>NEMATHOR 20 L X 1LT</t>
+  </si>
+  <si>
+    <t>PANTERA HUMIMAX X 1LT</t>
+  </si>
+  <si>
+    <t>MERIDIAN X 100GR</t>
+  </si>
+  <si>
+    <t>CAMPAL 250CE X 1LT</t>
+  </si>
+  <si>
+    <t>CACIQUE X 1LT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF305496"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF38761D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,12 +143,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,19 +465,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,81 +488,248 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>77</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>38</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>75</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>58</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>160</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C8" s="1">
+        <v>28</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>73</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>90</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C12" s="1">
+        <v>95</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D19" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
+      <sortCondition ref="B1:B19"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BOLERA-FACTURA/BOLETA HOY.xlsx
+++ b/BOLERA-FACTURA/BOLETA HOY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC9E5CB-6AA1-420A-89CB-438512173CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59A380-BC56-466C-9D1F-86C2810507D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>unidad</t>
   </si>
@@ -42,53 +42,40 @@
     <t>IGV</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>DELTAPLUS 2.5 EC X 1LT</t>
-  </si>
-  <si>
-    <t>ROOT HOR FCO X1LT</t>
-  </si>
-  <si>
-    <t>BUKRA 580 WG X 100GR</t>
-  </si>
-  <si>
-    <t>KIETO 150 WG X 100GR</t>
-  </si>
-  <si>
-    <t>FIPROKILL 200 SC X 1LT</t>
-  </si>
-  <si>
-    <t>BOMBAI X 125GR</t>
-  </si>
-  <si>
-    <t>NEMATHOR 20 L X 1LT</t>
-  </si>
-  <si>
-    <t>PANTERA HUMIMAX X 1LT</t>
-  </si>
-  <si>
-    <t>MERIDIAN X 100GR</t>
-  </si>
-  <si>
-    <t>CAMPAL 250CE X 1LT</t>
-  </si>
-  <si>
-    <t>CACIQUE X 1LT</t>
+    <t>UREA AGRICOLA FERTILIZANTE (BL.50 KG) - MOLINOS</t>
+  </si>
+  <si>
+    <t>YARAMILA COMPLEX 50KG</t>
+  </si>
+  <si>
+    <t>NITRATO DE AMONIO ESTABILIZADO USO AGRICOLA BL X50KG MOLINOS</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -102,30 +89,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF305496"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF38761D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,31 +121,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -465,271 +441,254 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="3"/>
+    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="A2" s="5">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>77</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="C3" s="5">
+        <v>190</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>109</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>38</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>75</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1">
-        <v>55</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>58</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1">
-        <v>160</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1">
-        <v>28</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>73</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1">
-        <v>90</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <v>22</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>95</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="6"/>
-    </row>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="5"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="5"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="5"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D19" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D19">
-      <sortCondition ref="B1:B19"/>
+  <autoFilter ref="A1:D31" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
+      <sortCondition ref="B1:B31"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BOLERA-FACTURA/BOLETA HOY.xlsx
+++ b/BOLERA-FACTURA/BOLETA HOY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\EXTENCION_PHYTON\BOLERA-FACTURA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F59A380-BC56-466C-9D1F-86C2810507D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DE17B4-EA6E-4BB5-92DA-AE3C27CFBE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>unidad</t>
   </si>
@@ -45,13 +45,16 @@
     <t>UREA AGRICOLA FERTILIZANTE (BL.50 KG) - MOLINOS</t>
   </si>
   <si>
-    <t>YARAMILA COMPLEX 50KG</t>
-  </si>
-  <si>
-    <t>NITRATO DE AMONIO ESTABILIZADO USO AGRICOLA BL X50KG MOLINOS</t>
-  </si>
-  <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>SULFATO DE AMONIO MARRON(BL.50KG) - MOLINOS</t>
+  </si>
+  <si>
+    <t>FOSF.DIAMONICOGR.18-46-00 BL X50KG MOLINOS</t>
+  </si>
+  <si>
+    <t>SULFATO AMONIO STD X 50KG EQUILIBRA</t>
   </si>
 </sst>
 </file>
@@ -98,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -121,26 +124,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -156,9 +144,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,16 +457,16 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -489,13 +474,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5">
+        <v>151</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5">
-        <v>190</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -503,26 +488,39 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5">
+        <v>68</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>6</v>
       </c>
-      <c r="C4" s="5">
-        <v>109</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>106</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -538,9 +536,9 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -556,136 +554,21 @@
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D31" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D31">
-      <sortCondition ref="B1:B31"/>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
